--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304059.442601174</v>
+        <v>301579.4537560407</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.58753137643988</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>82.01816637160744</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.73908388575283</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>83.98466004933685</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>258.4116249905528</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>153.4201834377889</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>46.80515048499936</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>8.451161327940873</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>77.97736515780183</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>277.3039539762337</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>42.67804628306402</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>82.03494511241597</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758626</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016454</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>180.3302385618281</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>19.17715139986212</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.24347904696321</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>95.05806357631725</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>59.6741591338908</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.83255574579442</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>109.090968037234</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>131.6329842920044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>134.3542165280268</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.1944220709586</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.3216348137587</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="C2" t="n">
-        <v>492.359117873347</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="D2" t="n">
-        <v>134.0934192665965</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="E2" t="n">
-        <v>134.0934192665965</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>1547.988193166234</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>1547.988193166234</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>1397.871553753899</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1397.871553753899</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1250.981606255988</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2365.710580560016</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329314</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="W4" t="n">
-        <v>638.3033838959707</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="X4" t="n">
-        <v>638.3033838959707</v>
+        <v>1768.780772309764</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.5108047524405</v>
+        <v>1547.988193166234</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.200456328342</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.200456328342</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="D5" t="n">
-        <v>1063.934757721592</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="E5" t="n">
-        <v>678.1465051233477</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>561.0624978443403</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392464</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1790.186161063193</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1568.419545632719</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1279.316678758363</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.632190552476</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>735.2150205155149</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>735.2150205155149</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.4224413719847</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2038.144201386631</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1669.18168444622</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1310.915985839469</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4811,16 +4811,16 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450753</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>712.6441443736234</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C10" t="n">
-        <v>543.7079614457165</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D10" t="n">
-        <v>393.5913220333807</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>393.5913220333807</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>246.7013745354704</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>246.7013745354704</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658018</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.426274415171</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>933.4367235171535</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.6441443736234</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,22 +5057,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603202</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397315</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360355</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5367,13 +5367,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>336.9860575577209</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2389.141387573227</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2389.141387573227</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2169.539922596168</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1695.154629184233</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.737459147272</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.747908249255</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098228</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,19 +6625,19 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.78619868161</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,13 +6950,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,16 +7178,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>209.8182145300364</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>324.857879370104</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>74.81276544421948</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610416</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>45.37941682720773</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.3469868924067</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.131767663158477</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>84.77391660562004</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>192.4634841899372</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>58.15585306139384</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>154.8900140445866</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>32.89260457060107</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>55.21102825632963</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>988491.789510067</v>
+        <v>988491.7895100672</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>335917.9865019029</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="F2" t="n">
         <v>363215.9698605027</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="H2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605027</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455673</v>
+        <v>95375.52669455679</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312018</v>
@@ -26439,22 +26439,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
+        <v>9947.14432176895</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768883</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9947.144321768921</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-967147.096208418</v>
+        <v>-967333.4895969573</v>
       </c>
       <c r="C6" t="n">
-        <v>-31038.06482769143</v>
+        <v>-31038.06482769171</v>
       </c>
       <c r="D6" t="n">
         <v>172400.6767844142</v>
       </c>
       <c r="E6" t="n">
-        <v>-73266.16609252896</v>
+        <v>-73300.90401796412</v>
       </c>
       <c r="F6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.557789391</v>
       </c>
       <c r="G6" t="n">
-        <v>252146.2957148269</v>
+        <v>252111.5577893908</v>
       </c>
       <c r="H6" t="n">
-        <v>252146.2957148264</v>
+        <v>252111.557789391</v>
       </c>
       <c r="I6" t="n">
-        <v>252146.2957148268</v>
+        <v>252111.557789391</v>
       </c>
       <c r="J6" t="n">
-        <v>84541.11790484404</v>
+        <v>84506.3799794084</v>
       </c>
       <c r="K6" t="n">
-        <v>203036.2030087723</v>
+        <v>203001.4650833366</v>
       </c>
       <c r="L6" t="n">
-        <v>252146.2957148268</v>
+        <v>252111.557789391</v>
       </c>
       <c r="M6" t="n">
-        <v>167091.2677793148</v>
+        <v>167056.529853879</v>
       </c>
       <c r="N6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.5577893908</v>
       </c>
       <c r="O6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.5577893911</v>
       </c>
       <c r="P6" t="n">
-        <v>252146.2957148266</v>
+        <v>252111.5577893911</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>155.711808475759</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>79.32809575700429</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>336.7349373287345</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.0928962961845</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>141.7249953397003</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>148.4644207511587</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>257.5015422156645</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>142.9638748464425</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>210.1334920241539</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>303.9530049144599</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>50.44830449390116</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>105.9374267351483</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>62.72006980190481</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>658.2124561388956</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>651.5998000366021</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>369.1789913099997</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>587.1221002143864</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>577.7882979947786</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>526.8707440555623</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>446.7666531334392</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>509.0035555921577</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>226.5827468655553</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>444.525855769942</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
